--- a/OnBoard/output/trust/bio/Bio_Trust_10.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_10.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q219"/>
+  <dimension ref="A1:Q195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F2">
@@ -477,14 +477,14 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L2">
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F3">
@@ -524,19 +524,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="I3">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L3">
@@ -546,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -561,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F4">
@@ -576,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="I4">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -588,7 +583,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L4">
@@ -598,7 +593,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -613,12 +608,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F5">
@@ -628,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="I5">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -640,7 +635,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L5">
@@ -650,7 +645,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -665,12 +660,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F6">
@@ -680,19 +675,14 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="I6">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L6">
@@ -702,7 +692,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -717,12 +707,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F7">
@@ -732,19 +722,14 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L7">
@@ -754,7 +739,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -769,12 +754,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F8">
@@ -784,19 +769,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>42</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L8">
@@ -806,7 +786,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -821,12 +801,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F9">
@@ -836,19 +816,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I9">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L9">
@@ -858,7 +833,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -873,12 +848,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F10">
@@ -888,19 +863,14 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L10">
@@ -910,7 +880,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -925,12 +895,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F11">
@@ -940,19 +910,14 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L11">
@@ -962,7 +927,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -977,12 +942,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F12">
@@ -992,19 +957,14 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="I12">
-        <v>47</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L12">
@@ -1014,7 +974,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1029,12 +989,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F13">
@@ -1044,19 +1004,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="I13">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L13">
@@ -1066,7 +1021,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1081,12 +1036,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F14">
@@ -1096,19 +1051,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="I14">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L14">
@@ -1118,7 +1068,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1133,12 +1083,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F15">
@@ -1148,19 +1098,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L15">
@@ -1170,7 +1115,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1185,12 +1130,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F16">
@@ -1200,19 +1145,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="I16">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L16">
@@ -1222,7 +1162,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1237,12 +1177,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F17">
@@ -1252,19 +1192,14 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="I17">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L17">
@@ -1274,7 +1209,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1289,12 +1224,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F18">
@@ -1304,19 +1239,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L18">
@@ -1326,7 +1256,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1341,12 +1271,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F19">
@@ -1356,19 +1286,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I19">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L19">
@@ -1378,7 +1303,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1393,12 +1318,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F20">
@@ -1408,19 +1333,14 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="I20">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L20">
@@ -1430,7 +1350,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1445,12 +1365,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F21">
@@ -1460,19 +1380,14 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="I21">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L21">
@@ -1482,7 +1397,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1497,12 +1412,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F22">
@@ -1512,19 +1427,14 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I22">
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L22">
@@ -1534,7 +1444,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1549,12 +1459,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F23">
@@ -1564,29 +1474,29 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="I23">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L23">
         <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1601,12 +1511,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F24">
@@ -1616,19 +1526,14 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I24">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L24">
@@ -1638,7 +1543,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1653,12 +1558,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F25">
@@ -1668,19 +1573,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I25">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L25">
@@ -1690,7 +1590,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1705,12 +1605,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F26">
@@ -1720,19 +1620,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I26">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L26">
@@ -1742,7 +1637,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1757,12 +1652,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F27">
@@ -1772,19 +1667,14 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="I27">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L27">
@@ -1794,7 +1684,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1824,19 +1714,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L28">
@@ -1846,7 +1731,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1876,19 +1761,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L29">
@@ -1898,7 +1778,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1928,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1945,7 +1825,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1975,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I31">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1992,7 +1872,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2022,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2039,7 +1919,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2069,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2086,7 +1966,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2116,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2133,7 +2013,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2163,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I35">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2180,7 +2060,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2210,14 +2090,19 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I36">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L36">
@@ -2227,7 +2112,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2257,14 +2142,19 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L37">
@@ -2274,7 +2164,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2304,14 +2194,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I38">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L38">
@@ -2321,7 +2216,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2351,14 +2246,19 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I39">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L39">
@@ -2368,7 +2268,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2398,14 +2298,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I40">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L40">
@@ -2415,7 +2320,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2445,14 +2350,19 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I41">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L41">
@@ -2462,7 +2372,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2492,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2509,7 +2419,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2529,7 +2439,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F43">
@@ -2539,14 +2449,14 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I43">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L43">
@@ -2556,7 +2466,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2576,7 +2486,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F44">
@@ -2586,14 +2496,14 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I44">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L44">
@@ -2603,7 +2513,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2623,7 +2533,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F45">
@@ -2633,14 +2543,14 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I45">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L45">
@@ -2650,7 +2560,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2670,7 +2580,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F46">
@@ -2680,14 +2590,14 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L46">
@@ -2697,7 +2607,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2717,7 +2627,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F47">
@@ -2727,14 +2637,14 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I47">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L47">
@@ -2744,7 +2654,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2764,7 +2674,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F48">
@@ -2774,14 +2684,14 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I48">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L48">
@@ -2791,7 +2701,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2811,7 +2721,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F49">
@@ -2821,14 +2731,14 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I49">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L49">
@@ -2838,7 +2748,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2858,7 +2768,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F50">
@@ -2868,14 +2778,14 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="I50">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L50">
@@ -2885,7 +2795,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2905,7 +2815,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F51">
@@ -2915,14 +2825,14 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="I51">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L51">
@@ -2932,7 +2842,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2952,7 +2862,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F52">
@@ -2962,29 +2872,24 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L52">
         <v>0</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3004,7 +2909,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NEPRNOR</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F53">
@@ -3014,14 +2919,14 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="I53">
-        <v>93</v>
+        <v>-1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L53">
@@ -3031,7 +2936,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3046,12 +2951,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F54">
@@ -3061,19 +2966,14 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="I54">
-        <v>53</v>
+        <v>-1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L54">
@@ -3083,7 +2983,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3098,12 +2998,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F55">
@@ -3113,19 +3013,14 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="I55">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L55">
@@ -3135,7 +3030,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3150,12 +3045,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F56">
@@ -3165,19 +3060,14 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I56">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L56">
@@ -3187,7 +3077,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3202,12 +3092,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F57">
@@ -3217,19 +3107,14 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="I57">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L57">
@@ -3239,7 +3124,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3254,12 +3139,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F58">
@@ -3269,19 +3154,14 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="I58">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L58">
@@ -3291,7 +3171,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3306,12 +3186,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F59">
@@ -3321,19 +3201,14 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I59">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L59">
@@ -3343,7 +3218,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3358,12 +3233,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F60">
@@ -3373,19 +3248,14 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="I60">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L60">
@@ -3395,7 +3265,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3410,12 +3280,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F61">
@@ -3425,19 +3295,14 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="I61">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L61">
@@ -3447,7 +3312,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3462,12 +3327,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F62">
@@ -3477,19 +3342,14 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="I62">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L62">
@@ -3499,7 +3359,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3514,12 +3374,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F63">
@@ -3529,19 +3389,14 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="I63">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L63">
@@ -3551,7 +3406,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3566,12 +3421,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F64">
@@ -3581,19 +3436,14 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="I64">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L64">
@@ -3603,7 +3453,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3618,12 +3468,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F65">
@@ -3633,19 +3483,14 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="I65">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L65">
@@ -3655,7 +3500,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3670,12 +3515,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F66">
@@ -3685,19 +3530,14 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I66">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L66">
@@ -3707,7 +3547,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3722,12 +3562,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F67">
@@ -3737,19 +3577,14 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="I67">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L67">
@@ -3759,7 +3594,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3774,12 +3609,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ANTOMEG</t>
         </is>
       </c>
       <c r="F68">
@@ -3789,19 +3624,14 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="I68">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L68">
@@ -3811,7 +3641,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3826,12 +3656,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F69">
@@ -3841,19 +3671,14 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I69">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L69">
@@ -3863,7 +3688,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3878,12 +3703,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F70">
@@ -3893,19 +3718,14 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I70">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L70">
@@ -3915,7 +3735,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3930,12 +3750,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F71">
@@ -3945,19 +3765,14 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="I71">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L71">
@@ -3967,7 +3782,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3982,12 +3797,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F72">
@@ -3997,19 +3812,14 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="I72">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L72">
@@ -4019,7 +3829,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4034,12 +3844,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F73">
@@ -4049,19 +3859,14 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="I73">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L73">
@@ -4071,7 +3876,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4086,12 +3891,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F74">
@@ -4101,19 +3906,14 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I74">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L74">
@@ -4123,7 +3923,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4138,12 +3938,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F75">
@@ -4153,19 +3953,14 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="I75">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L75">
@@ -4175,7 +3970,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4190,12 +3985,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F76">
@@ -4205,19 +4000,14 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="I76">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L76">
@@ -4227,7 +4017,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4242,12 +4032,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEACA</t>
         </is>
       </c>
       <c r="F77">
@@ -4257,19 +4047,14 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="I77">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L77">
@@ -4279,7 +4064,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4294,12 +4079,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F78">
@@ -4309,19 +4094,14 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I78">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L78">
@@ -4331,7 +4111,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4346,12 +4126,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F79">
@@ -4361,19 +4141,14 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="I79">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L79">
@@ -4383,7 +4158,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4398,12 +4173,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F80">
@@ -4413,19 +4188,14 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I80">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L80">
@@ -4435,7 +4205,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4450,12 +4220,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F81">
@@ -4465,19 +4235,14 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I81">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L81">
@@ -4487,7 +4252,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4502,12 +4267,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F82">
@@ -4517,19 +4282,14 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I82">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L82">
@@ -4539,7 +4299,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4554,12 +4314,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F83">
@@ -4569,19 +4329,14 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I83">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L83">
@@ -4591,7 +4346,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4606,12 +4361,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F84">
@@ -4621,19 +4376,14 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="I84">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L84">
@@ -4643,7 +4393,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4658,12 +4408,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F85">
@@ -4673,19 +4423,14 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="I85">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L85">
@@ -4695,7 +4440,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4710,12 +4455,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F86">
@@ -4725,19 +4470,14 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I86">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L86">
@@ -4747,7 +4487,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4762,12 +4502,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F87">
@@ -4777,19 +4517,14 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I87">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L87">
@@ -4799,7 +4534,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4814,12 +4549,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F88">
@@ -4829,19 +4564,14 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="I88">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L88">
@@ -4851,7 +4581,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4866,12 +4596,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F89">
@@ -4881,14 +4611,14 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="I89">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L89">
@@ -4898,7 +4628,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4913,12 +4643,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F90">
@@ -4928,14 +4658,14 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L90">
@@ -4945,7 +4675,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4960,12 +4690,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F91">
@@ -4975,14 +4705,14 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I91">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L91">
@@ -4992,7 +4722,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5007,12 +4737,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F92">
@@ -5022,14 +4752,14 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I92">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L92">
@@ -5039,7 +4769,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5054,12 +4784,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F93">
@@ -5069,14 +4799,14 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I93">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L93">
@@ -5086,7 +4816,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5101,12 +4831,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F94">
@@ -5116,10 +4846,10 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I94">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -5133,7 +4863,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5148,12 +4878,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F95">
@@ -5163,14 +4893,14 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I95">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L95">
@@ -5180,7 +4910,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5200,7 +4930,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F96">
@@ -5210,24 +4940,34 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="I96">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L96">
         <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>SS8167</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5247,7 +4987,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F97">
@@ -5257,24 +4997,34 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="I97">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L97">
         <v>0</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>SS8168</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5294,7 +5044,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F98">
@@ -5304,24 +5054,34 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="I98">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
       <c r="L98">
         <v>0</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>SS8169</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5341,7 +5101,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F99">
@@ -5351,24 +5111,34 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="I99">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L99">
         <v>0</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>SS8170</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5388,7 +5158,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F100">
@@ -5398,24 +5168,34 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="I100">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L100">
         <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>SS8171</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5435,7 +5215,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F101">
@@ -5445,24 +5225,34 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="I101">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L101">
         <v>0</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>SS8172</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5482,7 +5272,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F102">
@@ -5492,24 +5282,34 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="I102">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L102">
         <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>SS8173</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5529,7 +5329,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F103">
@@ -5539,24 +5339,34 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="I103">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L103">
         <v>0</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>SS8174</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5576,7 +5386,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F104">
@@ -5586,24 +5396,34 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="I104">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>HOLRM-4</t>
+        </is>
+      </c>
       <c r="L104">
         <v>0</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>SS8175</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5623,7 +5443,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F105">
@@ -5633,24 +5453,34 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="I105">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L105">
         <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>SS8176</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5670,7 +5500,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F106">
@@ -5680,24 +5510,34 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="I106">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>HOLRA-5</t>
         </is>
       </c>
       <c r="L106">
         <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>SS8177</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5717,7 +5557,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F107">
@@ -5727,24 +5567,34 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="I107">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L107">
         <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>SS8178</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5764,7 +5614,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F108">
@@ -5774,24 +5624,34 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="I108">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L108">
         <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>SS8179</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5811,7 +5671,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F109">
@@ -5821,24 +5681,34 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="I109">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L109">
         <v>0</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>SS8180</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5858,7 +5728,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F110">
@@ -5868,24 +5738,34 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="I110">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L110">
         <v>0</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>SS8181</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5905,7 +5785,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F111">
@@ -5915,24 +5795,34 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="I111">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L111">
         <v>0</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>SS8182</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5947,12 +5837,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F112">
@@ -5962,10 +5852,10 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="I112">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5974,17 +5864,22 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L112">
         <v>0</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>SS8183</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5999,12 +5894,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F113">
@@ -6014,29 +5909,34 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="I113">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>HOLRM-4</t>
         </is>
       </c>
       <c r="L113">
         <v>0</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>SS8184</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6051,12 +5951,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F114">
@@ -6066,29 +5966,34 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="I114">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L114">
         <v>0</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>SS8185</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6103,12 +6008,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F115">
@@ -6118,29 +6023,34 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="I115">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L115">
         <v>0</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>SS8186</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6155,12 +6065,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F116">
@@ -6170,24 +6080,34 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="I116">
-        <v>-1</v>
+        <v>184</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L116">
         <v>0</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>SS8187</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6202,12 +6122,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F117">
@@ -6217,24 +6137,34 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I117">
-        <v>-1</v>
+        <v>117</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L117">
         <v>0</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>SS8188</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6249,12 +6179,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F118">
@@ -6264,24 +6194,34 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="I118">
-        <v>-1</v>
+        <v>94</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L118">
         <v>0</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>SS8189</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6296,12 +6236,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F119">
@@ -6311,24 +6251,34 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="I119">
-        <v>-1</v>
+        <v>154</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L119">
         <v>0</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>SS8190</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6343,12 +6293,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F120">
@@ -6358,10 +6308,10 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I120">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -6370,12 +6320,17 @@
       </c>
       <c r="L120">
         <v>0</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6390,12 +6345,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F121">
@@ -6405,24 +6360,34 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I121">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L121">
         <v>0</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6437,12 +6402,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F122">
@@ -6452,14 +6417,14 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="I122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L122">
@@ -6469,7 +6434,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6484,12 +6449,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F123">
@@ -6499,14 +6464,14 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="I123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L123">
@@ -6516,7 +6481,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6531,12 +6496,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F124">
@@ -6546,14 +6511,14 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="I124">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L124">
@@ -6563,7 +6528,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6578,12 +6543,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F125">
@@ -6593,14 +6558,14 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="I125">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L125">
@@ -6610,7 +6575,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6625,12 +6590,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F126">
@@ -6640,14 +6605,14 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="I126">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L126">
@@ -6657,7 +6622,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6672,12 +6637,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F127">
@@ -6687,14 +6652,14 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="I127">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L127">
@@ -6704,7 +6669,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6719,12 +6684,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F128">
@@ -6734,14 +6699,14 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="I128">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L128">
@@ -6751,7 +6716,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6766,12 +6731,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F129">
@@ -6781,14 +6746,14 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I129">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L129">
@@ -6798,7 +6763,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6813,12 +6778,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F130">
@@ -6828,14 +6793,14 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="I130">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L130">
@@ -6845,7 +6810,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6860,12 +6825,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F131">
@@ -6875,14 +6840,14 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="I131">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L131">
@@ -6892,7 +6857,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6907,12 +6872,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F132">
@@ -6922,14 +6887,14 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I132">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L132">
@@ -6939,7 +6904,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6954,12 +6919,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F133">
@@ -6969,14 +6934,14 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="I133">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L133">
@@ -6986,7 +6951,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7001,12 +6966,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MICUOCE</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F134">
@@ -7016,14 +6981,14 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I134">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L134">
@@ -7033,7 +6998,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7048,12 +7013,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F135">
@@ -7063,14 +7028,14 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I135">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L135">
@@ -7080,7 +7045,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7095,12 +7060,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F136">
@@ -7110,14 +7075,14 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I136">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L136">
@@ -7127,7 +7092,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7142,12 +7107,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F137">
@@ -7157,19 +7122,14 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="I137">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L137">
@@ -7179,7 +7139,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7194,12 +7154,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F138">
@@ -7209,14 +7169,14 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I138">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L138">
@@ -7226,7 +7186,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7241,12 +7201,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F139">
@@ -7256,14 +7216,14 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="I139">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L139">
@@ -7273,7 +7233,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7288,12 +7248,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F140">
@@ -7303,14 +7263,14 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L140">
@@ -7320,7 +7280,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7335,12 +7295,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F141">
@@ -7350,14 +7310,14 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I141">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L141">
@@ -7367,7 +7327,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7382,12 +7342,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F142">
@@ -7397,14 +7357,14 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I142">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L142">
@@ -7414,7 +7374,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7429,12 +7389,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F143">
@@ -7444,19 +7404,14 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="I143">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L143">
@@ -7466,7 +7421,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7481,12 +7436,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F144">
@@ -7496,19 +7451,14 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="I144">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L144">
@@ -7518,7 +7468,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7533,12 +7483,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F145">
@@ -7548,19 +7498,14 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I145">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>SOSEM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L145">
@@ -7570,7 +7515,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7585,12 +7530,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F146">
@@ -7600,19 +7545,14 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I146">
-        <v>81</v>
+        <v>-1</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L146">
@@ -7622,7 +7562,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7637,12 +7577,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F147">
@@ -7652,14 +7592,19 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I147">
         <v>-1</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L147">
@@ -7669,7 +7614,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7689,7 +7634,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F148">
@@ -7699,14 +7644,14 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>363</v>
+        <v>33</v>
       </c>
       <c r="I148">
         <v>-1</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L148">
@@ -7716,7 +7661,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7736,7 +7681,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F149">
@@ -7746,14 +7691,19 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="I149">
         <v>-1</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L149">
@@ -7763,7 +7713,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7783,7 +7733,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F150">
@@ -7793,14 +7743,14 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="I150">
         <v>-1</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L150">
@@ -7810,7 +7760,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7830,7 +7780,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F151">
@@ -7840,14 +7790,14 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="I151">
         <v>-1</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L151">
@@ -7857,7 +7807,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7877,7 +7827,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F152">
@@ -7887,19 +7837,14 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I152">
-        <v>117</v>
+        <v>-1</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L152">
@@ -7909,7 +7854,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7929,7 +7874,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F153">
@@ -7939,19 +7884,14 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I153">
-        <v>120</v>
+        <v>-1</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L153">
@@ -7961,7 +7901,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7981,7 +7921,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F154">
@@ -7991,19 +7931,19 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I154">
-        <v>170</v>
+        <v>-1</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L154">
@@ -8013,7 +7953,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8033,7 +7973,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F155">
@@ -8043,19 +7983,14 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="I155">
-        <v>280</v>
+        <v>-1</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L155">
@@ -8065,7 +8000,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8085,7 +8020,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F156">
@@ -8095,14 +8030,14 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="I156">
         <v>-1</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L156">
@@ -8112,7 +8047,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8132,7 +8067,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F157">
@@ -8142,14 +8077,14 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="I157">
         <v>-1</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L157">
@@ -8159,7 +8094,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8179,7 +8114,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F158">
@@ -8189,14 +8124,14 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="I158">
         <v>-1</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L158">
@@ -8206,7 +8141,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8226,7 +8161,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F159">
@@ -8236,14 +8171,19 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="I159">
         <v>-1</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L159">
@@ -8253,7 +8193,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8273,7 +8213,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F160">
@@ -8283,14 +8223,14 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="I160">
         <v>-1</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L160">
@@ -8300,7 +8240,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8320,7 +8260,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F161">
@@ -8330,14 +8270,14 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I161">
         <v>-1</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L161">
@@ -8347,7 +8287,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8367,7 +8307,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F162">
@@ -8377,14 +8317,14 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="I162">
         <v>-1</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L162">
@@ -8394,7 +8334,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8414,7 +8354,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F163">
@@ -8424,14 +8364,14 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I163">
         <v>-1</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L163">
@@ -8441,7 +8381,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8461,7 +8401,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F164">
@@ -8471,14 +8411,14 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="I164">
         <v>-1</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L164">
@@ -8488,7 +8428,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8508,7 +8448,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F165">
@@ -8518,14 +8458,14 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="I165">
-        <v>139</v>
+        <v>-1</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L165">
@@ -8535,7 +8475,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8555,7 +8495,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F166">
@@ -8565,14 +8505,14 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I166">
-        <v>56</v>
+        <v>-1</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L166">
@@ -8582,7 +8522,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8602,7 +8542,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F167">
@@ -8612,14 +8552,19 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I167">
-        <v>103</v>
+        <v>-1</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L167">
@@ -8629,7 +8574,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8649,7 +8594,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F168">
@@ -8659,14 +8604,14 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="I168">
-        <v>56</v>
+        <v>-1</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L168">
@@ -8676,7 +8621,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8696,7 +8641,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F169">
@@ -8706,14 +8651,19 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="I169">
-        <v>54</v>
+        <v>-1</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L169">
@@ -8723,7 +8673,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8743,7 +8693,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F170">
@@ -8753,14 +8703,14 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I170">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L170">
@@ -8770,7 +8720,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8785,12 +8735,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F171">
@@ -8800,14 +8750,14 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I171">
-        <v>84</v>
+        <v>-1</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L171">
@@ -8817,7 +8767,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8832,12 +8782,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F172">
@@ -8847,14 +8797,14 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I172">
-        <v>84</v>
+        <v>-1</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L172">
@@ -8864,7 +8814,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8879,12 +8829,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F173">
@@ -8894,14 +8844,14 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I173">
-        <v>102</v>
+        <v>-1</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L173">
@@ -8911,7 +8861,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8926,12 +8876,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F174">
@@ -8941,14 +8891,14 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I174">
-        <v>38</v>
+        <v>-1</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L174">
@@ -8958,7 +8908,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8973,12 +8923,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F175">
@@ -8988,14 +8938,14 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I175">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L175">
@@ -9005,7 +8955,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9020,12 +8970,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F176">
@@ -9035,14 +8985,14 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I176">
-        <v>42</v>
+        <v>-1</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L176">
@@ -9052,7 +9002,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9067,12 +9017,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F177">
@@ -9082,14 +9032,14 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I177">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L177">
@@ -9099,7 +9049,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9114,12 +9064,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F178">
@@ -9129,14 +9079,14 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="I178">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L178">
@@ -9146,7 +9096,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9161,12 +9111,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F179">
@@ -9176,14 +9126,14 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I179">
-        <v>114</v>
+        <v>-1</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L179">
@@ -9193,7 +9143,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9208,12 +9158,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F180">
@@ -9223,14 +9173,14 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I180">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L180">
@@ -9240,7 +9190,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9260,7 +9210,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F181">
@@ -9270,19 +9220,14 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I181">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L181">
@@ -9292,7 +9237,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9312,7 +9257,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F182">
@@ -9322,34 +9267,24 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I182">
-        <v>83</v>
+        <v>-1</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
       <c r="L182">
         <v>0</v>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>SS7604</t>
-        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9369,7 +9304,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F183">
@@ -9379,34 +9314,24 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="I183">
-        <v>83</v>
+        <v>-1</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
       <c r="L183">
         <v>0</v>
-      </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>SS7605</t>
-        </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9426,7 +9351,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F184">
@@ -9436,34 +9361,24 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="I184">
-        <v>84</v>
+        <v>-1</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
       <c r="L184">
         <v>0</v>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>SS7606</t>
-        </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9483,7 +9398,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F185">
@@ -9493,34 +9408,29 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="I185">
-        <v>92</v>
+        <v>-1</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L185">
         <v>0</v>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>SS7607</t>
-        </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9540,7 +9450,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F186">
@@ -9550,34 +9460,24 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="I186">
-        <v>103</v>
+        <v>-1</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
       <c r="L186">
         <v>0</v>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>SS7608</t>
-        </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9597,7 +9497,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F187">
@@ -9607,34 +9507,24 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="I187">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
       <c r="L187">
         <v>0</v>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>SS7609</t>
-        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9654,7 +9544,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F188">
@@ -9664,10 +9554,10 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="I188">
-        <v>115</v>
+        <v>-1</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -9676,22 +9566,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L188">
         <v>0</v>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>SS7610</t>
-        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9711,7 +9596,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F189">
@@ -9721,34 +9606,24 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="I189">
-        <v>119</v>
+        <v>-1</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
       <c r="L189">
         <v>0</v>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>SS7611</t>
-        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9768,7 +9643,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F190">
@@ -9778,34 +9653,24 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="I190">
-        <v>208</v>
+        <v>-1</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L190">
         <v>0</v>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>SS7612</t>
-        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9820,12 +9685,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F191">
@@ -9835,34 +9700,29 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="I191">
-        <v>75</v>
+        <v>-1</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L191">
         <v>0</v>
-      </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>SS7613</t>
-        </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9877,12 +9737,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F192">
@@ -9892,34 +9752,24 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="I192">
-        <v>74</v>
+        <v>-1</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L192">
         <v>0</v>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>SS7614</t>
-        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -9934,12 +9784,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F193">
@@ -9949,34 +9799,24 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="I193">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
       <c r="L193">
         <v>0</v>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>SS7615</t>
-        </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -9991,12 +9831,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F194">
@@ -10006,34 +9846,24 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="I194">
-        <v>89</v>
+        <v>-1</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L194">
         <v>0</v>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>SS7616</t>
-        </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10048,12 +9878,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F195">
@@ -10063,1305 +9893,17 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="I195">
-        <v>92</v>
+        <v>-1</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L195">
-        <v>0</v>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>SS7617</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F196">
-        <v>1</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196">
-        <v>225</v>
-      </c>
-      <c r="I196">
-        <v>97</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L196">
-        <v>0</v>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>SS7618</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-      <c r="H197">
-        <v>224</v>
-      </c>
-      <c r="I197">
-        <v>97</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L197">
-        <v>0</v>
-      </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>SS7619</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="H198">
-        <v>232</v>
-      </c>
-      <c r="I198">
-        <v>105</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>SS7620</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199">
-        <v>233</v>
-      </c>
-      <c r="I199">
-        <v>105</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L199">
-        <v>0</v>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>SS7621</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-      <c r="H200">
-        <v>245</v>
-      </c>
-      <c r="I200">
-        <v>126</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L200">
-        <v>0</v>
-      </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>SS7622</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-      <c r="H201">
-        <v>258</v>
-      </c>
-      <c r="I201">
-        <v>150</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>SS7623</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F202">
-        <v>1</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202">
-        <v>266</v>
-      </c>
-      <c r="I202">
-        <v>155</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L202">
-        <v>0</v>
-      </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>SS7624</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F203">
-        <v>1</v>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="H203">
-        <v>223</v>
-      </c>
-      <c r="I203">
-        <v>87</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L203">
-        <v>0</v>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>SS7625</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F204">
-        <v>1</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-      <c r="H204">
-        <v>234</v>
-      </c>
-      <c r="I204">
-        <v>122</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L204">
-        <v>0</v>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>SS7626</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F205">
-        <v>1</v>
-      </c>
-      <c r="G205">
-        <v>1</v>
-      </c>
-      <c r="H205">
-        <v>229</v>
-      </c>
-      <c r="I205">
-        <v>101</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L205">
-        <v>0</v>
-      </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>SS7627</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206">
-        <v>1</v>
-      </c>
-      <c r="H206">
-        <v>217</v>
-      </c>
-      <c r="I206">
-        <v>83</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L206">
-        <v>0</v>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>SS7628</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F207">
-        <v>1</v>
-      </c>
-      <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="H207">
-        <v>220</v>
-      </c>
-      <c r="I207">
-        <v>90</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L207">
-        <v>0</v>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>SS7629</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F208">
-        <v>1</v>
-      </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>237</v>
-      </c>
-      <c r="I208">
-        <v>99</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L208">
-        <v>0</v>
-      </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>SS7630</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F209">
-        <v>1</v>
-      </c>
-      <c r="G209">
-        <v>1</v>
-      </c>
-      <c r="H209">
-        <v>228</v>
-      </c>
-      <c r="I209">
-        <v>103</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L209">
-        <v>0</v>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>SS7631</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F210">
-        <v>1</v>
-      </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210">
-        <v>232</v>
-      </c>
-      <c r="I210">
-        <v>112</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L210">
-        <v>0</v>
-      </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>no otoliti</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F211">
-        <v>1</v>
-      </c>
-      <c r="G211">
-        <v>1</v>
-      </c>
-      <c r="H211">
-        <v>20</v>
-      </c>
-      <c r="I211">
-        <v>-1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212">
-        <v>20</v>
-      </c>
-      <c r="I212">
-        <v>-1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-      <c r="H213">
-        <v>22</v>
-      </c>
-      <c r="I213">
-        <v>-1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F214">
-        <v>1</v>
-      </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-      <c r="H214">
-        <v>22</v>
-      </c>
-      <c r="I214">
-        <v>-1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F215">
-        <v>1</v>
-      </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-      <c r="H215">
-        <v>22</v>
-      </c>
-      <c r="I215">
-        <v>-1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F216">
-        <v>1</v>
-      </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-      <c r="H216">
-        <v>23</v>
-      </c>
-      <c r="I216">
-        <v>-1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F217">
-        <v>1</v>
-      </c>
-      <c r="G217">
-        <v>1</v>
-      </c>
-      <c r="H217">
-        <v>20</v>
-      </c>
-      <c r="I217">
-        <v>-1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F218">
-        <v>1</v>
-      </c>
-      <c r="G218">
-        <v>1</v>
-      </c>
-      <c r="H218">
-        <v>24</v>
-      </c>
-      <c r="I218">
-        <v>-1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-      <c r="H219">
-        <v>20</v>
-      </c>
-      <c r="I219">
-        <v>-1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L219">
         <v>0</v>
       </c>
     </row>
